--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="WeaponData" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="MagicBall" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>WeaponName</t>
   </si>
@@ -19,28 +20,7 @@
     <t>WeaponPrefabPath</t>
   </si>
   <si>
-    <t>Level1Hurt</t>
-  </si>
-  <si>
-    <t>Level1Number</t>
-  </si>
-  <si>
-    <t>Level2Hurt</t>
-  </si>
-  <si>
-    <t>Level2Number</t>
-  </si>
-  <si>
-    <t>Level3Hurt</t>
-  </si>
-  <si>
-    <t>Level3Number</t>
-  </si>
-  <si>
-    <t>Level4Hurt</t>
-  </si>
-  <si>
-    <t>Level4Number</t>
+    <t>SheetName</t>
   </si>
   <si>
     <t>NowWeaponLevel</t>
@@ -52,28 +32,7 @@
     <t>武器prefab路徑</t>
   </si>
   <si>
-    <t>階段一傷害</t>
-  </si>
-  <si>
-    <t>階段一數量</t>
-  </si>
-  <si>
-    <t>階段二傷害</t>
-  </si>
-  <si>
-    <t>階段二數量</t>
-  </si>
-  <si>
-    <t>階段三傷害</t>
-  </si>
-  <si>
-    <t>階段三數量</t>
-  </si>
-  <si>
-    <t>階段四傷害</t>
-  </si>
-  <si>
-    <t>階段四數量</t>
+    <t>sheet名字</t>
   </si>
   <si>
     <t>現在武器階段</t>
@@ -82,16 +41,52 @@
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>MagicBall</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/Weapons/Dark Magic.prefab</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Hurt</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>階段</t>
+  </si>
+  <si>
+    <t>傷害</t>
+  </si>
+  <si>
+    <t>數量</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>冷卻</t>
+  </si>
+  <si>
+    <t>持續時間</t>
+  </si>
+  <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>MagicBall</t>
-  </si>
-  <si>
-    <t>Assets/Prefabs/Weapons/Dark Magic.prefab</t>
   </si>
 </sst>
 </file>
@@ -144,6 +139,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -351,7 +350,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="33.75"/>
+    <col customWidth="1" min="2" max="2" width="36.75"/>
+    <col customWidth="1" min="3" max="3" width="16.5"/>
+    <col customWidth="1" min="4" max="4" width="18.5"/>
     <col customWidth="1" min="11" max="11" width="15.25"/>
   </cols>
   <sheetData>
@@ -368,131 +369,223 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
+      <c r="A4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10.0</v>
       </c>
       <c r="C4" s="2">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="2">
         <v>20.0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="C5" s="2">
         <v>2.0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="D5" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="2">
         <v>30.0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="C6" s="2">
         <v>2.0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="D6" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="2">
         <v>40.0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="C7" s="2">
         <v>4.0</v>
       </c>
-      <c r="K4" s="2">
-        <v>1.0</v>
+      <c r="D7" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -516,13 +516,13 @@
         <v>10.0</v>
       </c>
       <c r="C4" s="2">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" s="2">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" s="2">
         <v>5.0</v>

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>WeaponName</t>
   </si>
@@ -26,6 +26,12 @@
     <t>NowWeaponLevel</t>
   </si>
   <si>
+    <t>UIPath</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>武器名稱</t>
   </si>
   <si>
@@ -38,6 +44,12 @@
     <t>現在武器階段</t>
   </si>
   <si>
+    <t>武器UI路徑</t>
+  </si>
+  <si>
+    <t>武器說明</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -48,6 +60,12 @@
   </si>
   <si>
     <t>Assets/Prefabs/Weapons/Dark Magic.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ArtResources/Weapons/Weapons Sprite Sheet.png[Weapons Sprite Sheet_123]</t>
+  </si>
+  <si>
+    <t>朝向の方向に素早く発射します</t>
   </si>
   <si>
     <t>Level</t>
@@ -353,6 +371,8 @@
     <col customWidth="1" min="2" max="2" width="36.75"/>
     <col customWidth="1" min="3" max="3" width="16.5"/>
     <col customWidth="1" min="4" max="4" width="18.5"/>
+    <col customWidth="1" min="5" max="5" width="67.0"/>
+    <col customWidth="1" min="6" max="6" width="26.63"/>
     <col customWidth="1" min="11" max="11" width="15.25"/>
   </cols>
   <sheetData>
@@ -369,22 +389,32 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -392,19 +422,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -412,19 +446,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>1.0</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -450,62 +488,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>WeaponName</t>
   </si>
@@ -29,6 +29,9 @@
     <t>UIPath</t>
   </si>
   <si>
+    <t>UIName</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>武器UI路徑</t>
   </si>
   <si>
+    <t>武器UI名稱</t>
+  </si>
+  <si>
     <t>武器說明</t>
   </si>
   <si>
@@ -62,7 +68,10 @@
     <t>Assets/Prefabs/Weapons/Dark Magic.prefab</t>
   </si>
   <si>
-    <t>Assets/ArtResources/Weapons/Weapons Sprite Sheet.png[Weapons Sprite Sheet_123]</t>
+    <t>Assets/ArtResources/Weapons/Weapons Sprite Sheet.png</t>
+  </si>
+  <si>
+    <t>Weapons Sprite Sheet_123</t>
   </si>
   <si>
     <t>朝向の方向に素早く発射します</t>
@@ -373,6 +382,7 @@
     <col customWidth="1" min="4" max="4" width="18.5"/>
     <col customWidth="1" min="5" max="5" width="67.0"/>
     <col customWidth="1" min="6" max="6" width="26.63"/>
+    <col customWidth="1" min="7" max="7" width="27.13"/>
     <col customWidth="1" min="11" max="11" width="15.25"/>
   </cols>
   <sheetData>
@@ -395,75 +405,84 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>1.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -488,62 +507,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -472,7 +472,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>WeaponName</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>ScriptName</t>
+  </si>
+  <si>
     <t>武器名稱</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>武器說明</t>
   </si>
   <si>
+    <t>程式名稱</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -75,6 +81,9 @@
   </si>
   <si>
     <t>朝向の方向に素早く発射します</t>
+  </si>
+  <si>
+    <t>MagicBallController</t>
   </si>
   <si>
     <t>Level</t>
@@ -383,6 +392,7 @@
     <col customWidth="1" min="5" max="5" width="67.0"/>
     <col customWidth="1" min="6" max="6" width="26.63"/>
     <col customWidth="1" min="7" max="7" width="27.13"/>
+    <col customWidth="1" min="8" max="8" width="18.25"/>
     <col customWidth="1" min="11" max="11" width="15.25"/>
   </cols>
   <sheetData>
@@ -408,84 +418,145 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -507,62 +578,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>WeaponName</t>
   </si>
@@ -507,56 +507,20 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -489,7 +489,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -608,13 +608,13 @@
         <v>10.0</v>
       </c>
       <c r="C4" s="2">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="2">
         <v>7.0</v>
       </c>
       <c r="E4" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" s="2">
         <v>5.0</v>
@@ -634,7 +634,7 @@
         <v>5.0</v>
       </c>
       <c r="E5" s="2">
-        <v>4.0</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="2">
         <v>6.0</v>
@@ -648,13 +648,13 @@
         <v>30.0</v>
       </c>
       <c r="C6" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" s="2">
         <v>7.0</v>
       </c>
       <c r="E6" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="2">
         <v>7.0</v>
@@ -668,13 +668,13 @@
         <v>40.0</v>
       </c>
       <c r="C7" s="2">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" s="2">
         <v>7.0</v>
       </c>
       <c r="E7" s="2">
-        <v>3.0</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="2">
         <v>7.0</v>

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="WeaponData" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="MagicBall" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="FireBall" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>WeaponName</t>
   </si>
@@ -84,6 +85,21 @@
   </si>
   <si>
     <t>MagicBallController</t>
+  </si>
+  <si>
+    <t>FireBall</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/Weapons/FireBall.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ArtResources/Weapons/RotateFire/Effect3/1.png</t>
+  </si>
+  <si>
+    <t>周囲を回転しながら攻撃します。</t>
+  </si>
+  <si>
+    <t>FireBallController</t>
   </si>
   <si>
     <t>Level</t>
@@ -179,6 +195,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -489,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -507,12 +527,30 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2"/>
@@ -542,42 +580,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -585,19 +623,19 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -678,6 +716,164 @@
       </c>
       <c r="F7" s="2">
         <v>7.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -807,13 +807,13 @@
         <v>1.0</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0</v>
+        <v>150.0</v>
       </c>
       <c r="E4" s="2">
         <v>10.0</v>
       </c>
       <c r="F4" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -827,13 +827,13 @@
         <v>3.0</v>
       </c>
       <c r="D5" s="2">
-        <v>2.0</v>
+        <v>200.0</v>
       </c>
       <c r="E5" s="2">
-        <v>11.5</v>
+        <v>8.0</v>
       </c>
       <c r="F5" s="2">
-        <v>7.5</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -847,13 +847,13 @@
         <v>3.0</v>
       </c>
       <c r="D6" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F6" s="2">
         <v>4.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10.0</v>
       </c>
     </row>
     <row r="7">
@@ -867,13 +867,13 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="2">
-        <v>8.0</v>
+        <v>400.0</v>
       </c>
       <c r="E7" s="2">
-        <v>14.5</v>
+        <v>4.0</v>
       </c>
       <c r="F7" s="2">
-        <v>12.5</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -652,7 +652,7 @@
         <v>7.0</v>
       </c>
       <c r="E4" s="2">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="2">
         <v>5.0</v>
@@ -675,7 +675,7 @@
         <v>1.5</v>
       </c>
       <c r="F5" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -695,7 +695,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="2">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -715,7 +715,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="2">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -810,10 +810,10 @@
         <v>150.0</v>
       </c>
       <c r="E4" s="2">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -830,10 +830,10 @@
         <v>200.0</v>
       </c>
       <c r="E5" s="2">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -850,10 +850,10 @@
         <v>300.0</v>
       </c>
       <c r="E6" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -870,10 +870,10 @@
         <v>400.0</v>
       </c>
       <c r="E7" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -813,7 +813,7 @@
         <v>5.0</v>
       </c>
       <c r="F4" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -833,7 +833,7 @@
         <v>5.0</v>
       </c>
       <c r="F5" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -853,7 +853,7 @@
         <v>5.0</v>
       </c>
       <c r="F6" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -873,7 +873,7 @@
         <v>5.0</v>
       </c>
       <c r="F7" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/WeaponData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>WeaponName</t>
   </si>
@@ -39,6 +39,9 @@
     <t>ScriptName</t>
   </si>
   <si>
+    <t>GetHurtSoundPath</t>
+  </si>
+  <si>
     <t>武器名稱</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>程式名稱</t>
   </si>
   <si>
+    <t>NPC被武器攻擊到的聲音位置</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
     <t>MagicBallController</t>
   </si>
   <si>
+    <t>Assets/Music/NPC_GetHurt_By_MagicBall.wav</t>
+  </si>
+  <si>
     <t>FireBall</t>
   </si>
   <si>
@@ -100,6 +109,9 @@
   </si>
   <si>
     <t>FireBallController</t>
+  </si>
+  <si>
+    <t>Assets/Music/NPC_GetHurt_By_FireBall.mp3</t>
   </si>
   <si>
     <t>Level</t>
@@ -413,6 +425,7 @@
     <col customWidth="1" min="6" max="6" width="26.63"/>
     <col customWidth="1" min="7" max="7" width="27.13"/>
     <col customWidth="1" min="8" max="8" width="18.25"/>
+    <col customWidth="1" min="9" max="9" width="36.38"/>
     <col customWidth="1" min="11" max="11" width="15.25"/>
   </cols>
   <sheetData>
@@ -441,115 +454,127 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>1.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -580,62 +605,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -738,62 +763,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
